--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2.b_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_h/6.2.b_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Parámetro</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Coef_Variacion</t>
-  </si>
-  <si>
-    <t>100.0%</t>
   </si>
   <si>
     <t>66.7%</t>
@@ -614,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -631,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -648,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -656,13 +653,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -703,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.128901594427134E-08</v>
+        <v>0.002885802965638673</v>
       </c>
       <c r="D2">
-        <v>1.498748858352883E-08</v>
+        <v>0.001514757432216962</v>
       </c>
       <c r="E2">
-        <v>1.872084848275613E-05</v>
+        <v>0.009871223014168651</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -717,16 +714,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.128901594427134E-08</v>
+        <v>0.002885802965638673</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.896220203079224E-07</v>
+        <v>0.002351742784834299</v>
       </c>
       <c r="E3">
-        <v>6.13152947723794E-05</v>
+        <v>0.01374054425335625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -734,16 +731,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.498748858352883E-08</v>
+        <v>0.001514757432216962</v>
       </c>
       <c r="C4">
-        <v>1.896220203079224E-07</v>
+        <v>0.002351742784834299</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.002920212440465031</v>
+        <v>0.04198433918428757</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -751,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.872084848275613E-05</v>
+        <v>0.009871223014168651</v>
       </c>
       <c r="C5">
-        <v>6.13152947723794E-05</v>
+        <v>0.01374054425335625</v>
       </c>
       <c r="D5">
-        <v>0.002920212440465031</v>
+        <v>0.04198433918428757</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -798,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-5.738825641358411</v>
+        <v>-3.351582633019906</v>
       </c>
       <c r="D2">
-        <v>-5.689691166415138</v>
+        <v>-3.620494141815038</v>
       </c>
       <c r="E2">
-        <v>-4.291964434182144</v>
+        <v>-2.82445035501861</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -812,16 +809,16 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5.738825641358411</v>
+        <v>3.351582633019906</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.231136973897319</v>
+        <v>-3.437363438463411</v>
       </c>
       <c r="E3">
-        <v>-4.017895187195943</v>
+        <v>-2.677967864749372</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -829,16 +826,16 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.689691166415138</v>
+        <v>3.620494141815038</v>
       </c>
       <c r="C4">
-        <v>5.231136973897319</v>
+        <v>3.437363438463411</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.980387924749276</v>
+        <v>-2.159439046062592</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -846,13 +843,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.291964434182144</v>
+        <v>2.82445035501861</v>
       </c>
       <c r="C5">
-        <v>4.017895187195943</v>
+        <v>2.677967864749372</v>
       </c>
       <c r="D5">
-        <v>2.980387924749276</v>
+        <v>2.159439046062592</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -902,25 +899,25 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -928,25 +925,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -954,25 +951,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -983,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
